--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Alcam-Chl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Alcam-Chl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>29.77446566666667</v>
+        <v>0.4047206666666667</v>
       </c>
       <c r="H2">
-        <v>89.323397</v>
+        <v>1.214162</v>
       </c>
       <c r="I2">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="J2">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01518066666666667</v>
+        <v>1.690376666666667</v>
       </c>
       <c r="N2">
-        <v>0.045542</v>
+        <v>5.07113</v>
       </c>
       <c r="O2">
-        <v>0.005095273172517433</v>
+        <v>0.4735710074019371</v>
       </c>
       <c r="P2">
-        <v>0.005095273172517432</v>
+        <v>0.4735710074019371</v>
       </c>
       <c r="Q2">
-        <v>0.4519962384637778</v>
+        <v>0.6841303714511111</v>
       </c>
       <c r="R2">
-        <v>4.067966146174</v>
+        <v>6.15717334306</v>
       </c>
       <c r="S2">
-        <v>0.002515142793837041</v>
+        <v>0.01220882621122655</v>
       </c>
       <c r="T2">
-        <v>0.00251514279383704</v>
+        <v>0.01220882621122655</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>29.77446566666667</v>
+        <v>0.4047206666666667</v>
       </c>
       <c r="H3">
-        <v>89.323397</v>
+        <v>1.214162</v>
       </c>
       <c r="I3">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="J3">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.690376666666667</v>
+        <v>1.879049333333333</v>
       </c>
       <c r="N3">
-        <v>5.07113</v>
+        <v>5.637148</v>
       </c>
       <c r="O3">
-        <v>0.567361833985076</v>
+        <v>0.526428992598063</v>
       </c>
       <c r="P3">
-        <v>0.5673618339850759</v>
+        <v>0.5264289925980629</v>
       </c>
       <c r="Q3">
-        <v>50.33006202540111</v>
+        <v>0.7604900988862222</v>
       </c>
       <c r="R3">
-        <v>452.97055822861</v>
+        <v>6.844410889975999</v>
       </c>
       <c r="S3">
-        <v>0.2800627130145982</v>
+        <v>0.01357152355766137</v>
       </c>
       <c r="T3">
-        <v>0.2800627130145981</v>
+        <v>0.01357152355766137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,25 +652,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>29.77446566666667</v>
+        <v>0.5058753333333333</v>
       </c>
       <c r="H4">
-        <v>89.323397</v>
+        <v>1.517626</v>
       </c>
       <c r="I4">
-        <v>0.4936227575398824</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="J4">
-        <v>0.4936227575398824</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.257698</v>
+        <v>1.690376666666667</v>
       </c>
       <c r="N4">
-        <v>3.773094</v>
+        <v>5.07113</v>
       </c>
       <c r="O4">
-        <v>0.4221365911814697</v>
+        <v>0.4735710074019371</v>
       </c>
       <c r="P4">
-        <v>0.4221365911814696</v>
+        <v>0.4735710074019371</v>
       </c>
       <c r="Q4">
-        <v>37.44728592003534</v>
+        <v>0.8551198597088889</v>
       </c>
       <c r="R4">
-        <v>337.025573280318</v>
+        <v>7.696078737380001</v>
       </c>
       <c r="S4">
-        <v>0.2083762281974831</v>
+        <v>0.01526026352961046</v>
       </c>
       <c r="T4">
-        <v>0.208376228197483</v>
+        <v>0.01526026352961047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>29.77446566666667</v>
+        <v>0.5058753333333333</v>
       </c>
       <c r="H5">
-        <v>89.323397</v>
+        <v>1.517626</v>
       </c>
       <c r="I5">
-        <v>0.4936227575398824</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="J5">
-        <v>0.4936227575398824</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01610733333333333</v>
+        <v>1.879049333333333</v>
       </c>
       <c r="N5">
-        <v>0.048322</v>
+        <v>5.637148</v>
       </c>
       <c r="O5">
-        <v>0.00540630166093688</v>
+        <v>0.526428992598063</v>
       </c>
       <c r="P5">
-        <v>0.00540630166093688</v>
+        <v>0.5264289925980629</v>
       </c>
       <c r="Q5">
-        <v>0.4795872433148889</v>
+        <v>0.9505647078497778</v>
       </c>
       <c r="R5">
-        <v>4.316285189834001</v>
+        <v>8.555082370648</v>
       </c>
       <c r="S5">
-        <v>0.002668673533964109</v>
+        <v>0.01696354935397369</v>
       </c>
       <c r="T5">
-        <v>0.002668673533964109</v>
+        <v>0.01696354935397369</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5058753333333333</v>
+        <v>1.039987</v>
       </c>
       <c r="H6">
-        <v>1.517626</v>
+        <v>3.119961</v>
       </c>
       <c r="I6">
-        <v>0.008386769381758081</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="J6">
-        <v>0.008386769381758081</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01518066666666667</v>
+        <v>1.690376666666667</v>
       </c>
       <c r="N6">
-        <v>0.045542</v>
+        <v>5.07113</v>
       </c>
       <c r="O6">
-        <v>0.005095273172517433</v>
+        <v>0.4735710074019371</v>
       </c>
       <c r="P6">
-        <v>0.005095273172517432</v>
+        <v>0.4735710074019371</v>
       </c>
       <c r="Q6">
-        <v>0.007679524810222223</v>
+        <v>1.757969758436667</v>
       </c>
       <c r="R6">
-        <v>0.06911572329200001</v>
+        <v>15.82172782593</v>
       </c>
       <c r="S6">
-        <v>4.273288103496257E-05</v>
+        <v>0.0313723058659426</v>
       </c>
       <c r="T6">
-        <v>4.273288103496255E-05</v>
+        <v>0.0313723058659426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5058753333333333</v>
+        <v>1.039987</v>
       </c>
       <c r="H7">
-        <v>1.517626</v>
+        <v>3.119961</v>
       </c>
       <c r="I7">
-        <v>0.008386769381758081</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="J7">
-        <v>0.008386769381758081</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.690376666666667</v>
+        <v>1.879049333333333</v>
       </c>
       <c r="N7">
-        <v>5.07113</v>
+        <v>5.637148</v>
       </c>
       <c r="O7">
-        <v>0.567361833985076</v>
+        <v>0.526428992598063</v>
       </c>
       <c r="P7">
-        <v>0.5673618339850759</v>
+        <v>0.5264289925980629</v>
       </c>
       <c r="Q7">
-        <v>0.8551198597088889</v>
+        <v>1.954186879025333</v>
       </c>
       <c r="R7">
-        <v>7.696078737380001</v>
+        <v>17.587681911228</v>
       </c>
       <c r="S7">
-        <v>0.004758332857644146</v>
+        <v>0.03487394944866067</v>
       </c>
       <c r="T7">
-        <v>0.004758332857644145</v>
+        <v>0.03487394944866067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5058753333333333</v>
+        <v>13.74822133333333</v>
       </c>
       <c r="H8">
-        <v>1.517626</v>
+        <v>41.244664</v>
       </c>
       <c r="I8">
-        <v>0.008386769381758081</v>
+        <v>0.8757495820329246</v>
       </c>
       <c r="J8">
-        <v>0.008386769381758081</v>
+        <v>0.8757495820329247</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.257698</v>
+        <v>1.690376666666667</v>
       </c>
       <c r="N8">
-        <v>3.773094</v>
+        <v>5.07113</v>
       </c>
       <c r="O8">
-        <v>0.4221365911814697</v>
+        <v>0.4735710074019371</v>
       </c>
       <c r="P8">
-        <v>0.4221365911814696</v>
+        <v>0.4735710074019371</v>
       </c>
       <c r="Q8">
-        <v>0.6362383949826668</v>
+        <v>23.23967255003555</v>
       </c>
       <c r="R8">
-        <v>5.726145554844001</v>
+        <v>209.15705295032</v>
       </c>
       <c r="S8">
-        <v>0.003540362237840479</v>
+        <v>0.4147296117951574</v>
       </c>
       <c r="T8">
-        <v>0.003540362237840477</v>
+        <v>0.4147296117951575</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,542 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5058753333333333</v>
+        <v>13.74822133333333</v>
       </c>
       <c r="H9">
-        <v>1.517626</v>
+        <v>41.244664</v>
       </c>
       <c r="I9">
-        <v>0.008386769381758081</v>
+        <v>0.8757495820329246</v>
       </c>
       <c r="J9">
-        <v>0.008386769381758081</v>
+        <v>0.8757495820329247</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01610733333333333</v>
+        <v>1.879049333333333</v>
       </c>
       <c r="N9">
-        <v>0.048322</v>
+        <v>5.637148</v>
       </c>
       <c r="O9">
-        <v>0.00540630166093688</v>
+        <v>0.526428992598063</v>
       </c>
       <c r="P9">
-        <v>0.00540630166093688</v>
+        <v>0.5264289925980629</v>
       </c>
       <c r="Q9">
-        <v>0.008148302619111113</v>
+        <v>25.83358613091911</v>
       </c>
       <c r="R9">
-        <v>0.07333472357200001</v>
+        <v>232.502275178272</v>
       </c>
       <c r="S9">
-        <v>4.534140523849329E-05</v>
+        <v>0.4610199702377673</v>
       </c>
       <c r="T9">
-        <v>4.534140523849328E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.9158823333333332</v>
-      </c>
-      <c r="H10">
-        <v>2.747647</v>
-      </c>
-      <c r="I10">
-        <v>0.0151841637738675</v>
-      </c>
-      <c r="J10">
-        <v>0.0151841637738675</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.01518066666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.045542</v>
-      </c>
-      <c r="O10">
-        <v>0.005095273172517433</v>
-      </c>
-      <c r="P10">
-        <v>0.005095273172517432</v>
-      </c>
-      <c r="Q10">
-        <v>0.01390370440822222</v>
-      </c>
-      <c r="R10">
-        <v>0.125133339674</v>
-      </c>
-      <c r="S10">
-        <v>7.736746232409815E-05</v>
-      </c>
-      <c r="T10">
-        <v>7.736746232409812E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.9158823333333332</v>
-      </c>
-      <c r="H11">
-        <v>2.747647</v>
-      </c>
-      <c r="I11">
-        <v>0.0151841637738675</v>
-      </c>
-      <c r="J11">
-        <v>0.0151841637738675</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.690376666666667</v>
-      </c>
-      <c r="N11">
-        <v>5.07113</v>
-      </c>
-      <c r="O11">
-        <v>0.567361833985076</v>
-      </c>
-      <c r="P11">
-        <v>0.5673618339850759</v>
-      </c>
-      <c r="Q11">
-        <v>1.548186125678889</v>
-      </c>
-      <c r="R11">
-        <v>13.93367513111</v>
-      </c>
-      <c r="S11">
-        <v>0.008614915006271219</v>
-      </c>
-      <c r="T11">
-        <v>0.008614915006271217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.9158823333333332</v>
-      </c>
-      <c r="H12">
-        <v>2.747647</v>
-      </c>
-      <c r="I12">
-        <v>0.0151841637738675</v>
-      </c>
-      <c r="J12">
-        <v>0.0151841637738675</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.257698</v>
-      </c>
-      <c r="N12">
-        <v>3.773094</v>
-      </c>
-      <c r="O12">
-        <v>0.4221365911814697</v>
-      </c>
-      <c r="P12">
-        <v>0.4221365911814696</v>
-      </c>
-      <c r="Q12">
-        <v>1.151903378868667</v>
-      </c>
-      <c r="R12">
-        <v>10.367130409818</v>
-      </c>
-      <c r="S12">
-        <v>0.006409791135441588</v>
-      </c>
-      <c r="T12">
-        <v>0.006409791135441587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.9158823333333332</v>
-      </c>
-      <c r="H13">
-        <v>2.747647</v>
-      </c>
-      <c r="I13">
-        <v>0.0151841637738675</v>
-      </c>
-      <c r="J13">
-        <v>0.0151841637738675</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.01610733333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.048322</v>
-      </c>
-      <c r="O13">
-        <v>0.00540630166093688</v>
-      </c>
-      <c r="P13">
-        <v>0.00540630166093688</v>
-      </c>
-      <c r="Q13">
-        <v>0.01475242203711111</v>
-      </c>
-      <c r="R13">
-        <v>0.132771798334</v>
-      </c>
-      <c r="S13">
-        <v>8.209016983059748E-05</v>
-      </c>
-      <c r="T13">
-        <v>8.209016983059747E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>29.12203633333333</v>
-      </c>
-      <c r="H14">
-        <v>87.36610899999999</v>
-      </c>
-      <c r="I14">
-        <v>0.482806309304492</v>
-      </c>
-      <c r="J14">
-        <v>0.482806309304492</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.01518066666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.045542</v>
-      </c>
-      <c r="O14">
-        <v>0.005095273172517433</v>
-      </c>
-      <c r="P14">
-        <v>0.005095273172517432</v>
-      </c>
-      <c r="Q14">
-        <v>0.4420919262308888</v>
-      </c>
-      <c r="R14">
-        <v>3.978827336078</v>
-      </c>
-      <c r="S14">
-        <v>0.002460030035321332</v>
-      </c>
-      <c r="T14">
-        <v>0.002460030035321331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>29.12203633333333</v>
-      </c>
-      <c r="H15">
-        <v>87.36610899999999</v>
-      </c>
-      <c r="I15">
-        <v>0.482806309304492</v>
-      </c>
-      <c r="J15">
-        <v>0.482806309304492</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.690376666666667</v>
-      </c>
-      <c r="N15">
-        <v>5.07113</v>
-      </c>
-      <c r="O15">
-        <v>0.567361833985076</v>
-      </c>
-      <c r="P15">
-        <v>0.5673618339850759</v>
-      </c>
-      <c r="Q15">
-        <v>49.22721070368555</v>
-      </c>
-      <c r="R15">
-        <v>443.04489633317</v>
-      </c>
-      <c r="S15">
-        <v>0.2739258731065625</v>
-      </c>
-      <c r="T15">
-        <v>0.2739258731065624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>29.12203633333333</v>
-      </c>
-      <c r="H16">
-        <v>87.36610899999999</v>
-      </c>
-      <c r="I16">
-        <v>0.482806309304492</v>
-      </c>
-      <c r="J16">
-        <v>0.482806309304492</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.257698</v>
-      </c>
-      <c r="N16">
-        <v>3.773094</v>
-      </c>
-      <c r="O16">
-        <v>0.4221365911814697</v>
-      </c>
-      <c r="P16">
-        <v>0.4221365911814696</v>
-      </c>
-      <c r="Q16">
-        <v>36.62672685236067</v>
-      </c>
-      <c r="R16">
-        <v>329.640541671246</v>
-      </c>
-      <c r="S16">
-        <v>0.2038102096107046</v>
-      </c>
-      <c r="T16">
-        <v>0.2038102096107045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>29.12203633333333</v>
-      </c>
-      <c r="H17">
-        <v>87.36610899999999</v>
-      </c>
-      <c r="I17">
-        <v>0.482806309304492</v>
-      </c>
-      <c r="J17">
-        <v>0.482806309304492</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.01610733333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.048322</v>
-      </c>
-      <c r="O17">
-        <v>0.00540630166093688</v>
-      </c>
-      <c r="P17">
-        <v>0.00540630166093688</v>
-      </c>
-      <c r="Q17">
-        <v>0.4690783465664444</v>
-      </c>
-      <c r="R17">
-        <v>4.221705119098</v>
-      </c>
-      <c r="S17">
-        <v>0.00261019655190368</v>
-      </c>
-      <c r="T17">
-        <v>0.00261019655190368</v>
+        <v>0.4610199702377672</v>
       </c>
     </row>
   </sheetData>
